--- a/Data/Processed/Angiosperms/missing_powo_ipni/Primulaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Primulaceae.xlsx
@@ -487,7 +487,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
